--- a/ME/power_system.xlsx
+++ b/ME/power_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\ME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StormDrainRobot\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D32004F-75AD-4AAF-B604-3F7FE60618FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40E660-39A8-4FFE-BBE8-46416FBF478E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="1" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery Monitoring" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +326,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -800,15 +808,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>60</v>
@@ -821,7 +829,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -841,7 +849,7 @@
         <v>6179.310344827587</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -861,7 +869,7 @@
         <v>3531.0344827586159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -881,7 +889,7 @@
         <v>2206.8965517241377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -898,7 +906,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -906,7 +914,7 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -914,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -923,7 +931,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -932,7 +940,7 @@
         <v>3.1250000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -940,7 +948,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -948,7 +956,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -956,22 +964,22 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -988,21 +996,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="207.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="207.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -1029,8 +1037,8 @@
       </c>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -1055,7 +1063,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1114,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1162,8 +1170,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7">
@@ -1193,7 +1201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1302,8 +1310,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B12">
@@ -1330,8 +1338,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H13">
@@ -1339,12 +1347,12 @@
         <v>3.6000000000000003E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1361,7 @@
         <v>26.060099999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1392,17 +1400,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1594,7 +1602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1630,14 +1638,14 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>48</v>
       </c>
@@ -1648,7 +1656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1715,7 +1723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>

--- a/ME/power_system.xlsx
+++ b/ME/power_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StormDrainRobot\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40E660-39A8-4FFE-BBE8-46416FBF478E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D51C1-FFD1-46B7-9348-50498B27F1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery Monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Battery Nominal Voltage</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>OE(Enable Pin)</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Runtime(hr)</t>
+  </si>
+  <si>
+    <t>Battery Standby Voltage</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,13 +422,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>73039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>487940</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -802,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1F36D-4D94-4A0E-9DA4-02DA4ECFE1B0}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +825,7 @@
     <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>60</v>
@@ -829,7 +838,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -837,150 +846,184 @@
         <v>14.2</v>
       </c>
       <c r="C2" s="5">
-        <f>(B2*$B$11)/($B$10+$B$11)</f>
+        <f>(B2*$B$12)/($B$11+$B$12)</f>
         <v>1.9586206896551723</v>
       </c>
       <c r="D2" s="6">
-        <f>(1/$B$9)*C2</f>
+        <f>(1/$B$10)*C2</f>
         <v>62675.862068965514</v>
       </c>
       <c r="E2" s="6">
-        <f>D2-D3</f>
+        <f>D2-D4</f>
         <v>6179.310344827587</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="C3" s="5">
+        <f>(B3*$B$12)/($B$11+$B$12)</f>
+        <v>1.903448275862069</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(1/$B$10)*C3</f>
+        <v>60910.34482758621</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3-D5</f>
+        <v>7944.8275862068986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B4" s="4">
         <v>12.8</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C5" si="0">(B3*$B$11)/($B$10+$B$11)</f>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C6" si="0">(B4*$B$12)/($B$11+$B$12)</f>
         <v>1.7655172413793103</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D5" si="1">(1/$B$9)*C3</f>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D6" si="1">(1/$B$10)*C4</f>
         <v>56496.551724137928</v>
       </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:E4" si="2">D3-D4</f>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E5" si="2">D4-D5</f>
         <v>3531.0344827586159</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="H4">
+        <v>1.738</v>
+      </c>
+      <c r="I4">
+        <f>(B11+B12)*H4/B12</f>
+        <v>12.6005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B5" s="4">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>1.6551724137931034</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="6">
         <f t="shared" si="1"/>
         <v>52965.517241379312</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="6">
         <f t="shared" si="2"/>
         <v>2206.8965517241377</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>11.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>1.5862068965517242</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <f t="shared" si="1"/>
         <v>50758.620689655174</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2.048</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B8">
-        <f>2^B7</f>
+      <c r="B9">
+        <f>2^B8</f>
         <v>65536</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B9">
-        <f>B6/B8</f>
+      <c r="B10">
+        <f>B7/B9</f>
         <v>3.1250000000000001E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="3">
+        <f>B10*1000</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>4800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>14.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -995,15 +1038,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F429EF87-7522-4814-9EDC-46F679FC0812}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="207.42578125" bestFit="1" customWidth="1"/>
@@ -1032,13 +1077,13 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -1171,7 +1216,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7">
@@ -1264,9 +1309,6 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
       <c r="C10">
         <v>8.6999999999999993</v>
       </c>
@@ -1275,14 +1317,14 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1311,7 +1353,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12">
@@ -1339,7 +1381,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H13">
@@ -1352,13 +1394,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="F16">
+        <f>20/G16</f>
+        <v>3.3002755730103464</v>
+      </c>
       <c r="G16">
         <f>SUM(G2:G12)</f>
-        <v>26.060099999999998</v>
+        <v>6.0601000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,7 +1426,7 @@
       </c>
       <c r="G18">
         <f>G17-G16</f>
-        <v>3.9399000000000015</v>
+        <v>23.939900000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1397,7 +1448,7 @@
   <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1686,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ME/power_system.xlsx
+++ b/ME/power_system.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StormDrainRobot\ME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D51C1-FFD1-46B7-9348-50498B27F1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C86550-BC36-4E76-A85A-1FA342462E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="4" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
   </bookViews>
   <sheets>
-    <sheet name="Battery Monitoring" sheetId="1" r:id="rId1"/>
-    <sheet name="Power Budgeting" sheetId="4" r:id="rId2"/>
-    <sheet name="Pins" sheetId="5" r:id="rId3"/>
-    <sheet name="i2c addr" sheetId="6" r:id="rId4"/>
+    <sheet name="Parts List" sheetId="7" r:id="rId1"/>
+    <sheet name="Battery Monitoring" sheetId="1" r:id="rId2"/>
+    <sheet name="Power Budgeting" sheetId="4" r:id="rId3"/>
+    <sheet name="Pins" sheetId="5" r:id="rId4"/>
+    <sheet name="IIC Addresses" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>Battery Nominal Voltage</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Possible dual LED paths to allow for power saving mode</t>
-  </si>
-  <si>
     <t>Relays</t>
   </si>
   <si>
@@ -107,18 +105,12 @@
     <t>https://www.robotshop.com/media/files/pdf/user-manual-mdd10a.pdf</t>
   </si>
   <si>
-    <t>DataSheets</t>
-  </si>
-  <si>
     <t>Included in Jetson Nano Power Consumption</t>
   </si>
   <si>
     <t>Leftovers</t>
   </si>
   <si>
-    <t>https://www.rcuniverse.com/forum/rc-radios-transmitters-receivers-servos-gyros-157/2357551-how-much-power-does-servo-use.html</t>
-  </si>
-  <si>
     <t>Changes a lot in each situation also need to consider stall power to keep camera level</t>
   </si>
   <si>
@@ -131,9 +123,6 @@
     <t>Wheel Encoders</t>
   </si>
   <si>
-    <t>Per Switch Over</t>
-  </si>
-  <si>
     <t>Analog to Digital Conv</t>
   </si>
   <si>
@@ -306,6 +295,75 @@
   </si>
   <si>
     <t>Battery Standby Voltage</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-Gyroscope-Acceleration-Accelerator-Magnetometer/dp/B01I1J0Z7Y/ref=cm_cr_arp_d_product_top?ie=UTF8</t>
+  </si>
+  <si>
+    <t>We can access the magnometer directly or through the MPU9225 depending on using either the EDA and ECL or the SCL and SDA</t>
+  </si>
+  <si>
+    <t>TorqueNado Motor</t>
+  </si>
+  <si>
+    <t>Here</t>
+  </si>
+  <si>
+    <t>Possible dual LED paths to allow for power saving mode custom board</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Channel-Driver-Module-Optocoupler-ESP8266/dp/B0798CZDR9/ref=sr_1_7?crid=2P8BZMV9XVVX&amp;dchild=1&amp;keywords=3v+optocoupler+relay&amp;qid=1592351515&amp;sprefix=3v+opto%2Caps%2C223&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V Optocoupler Relay </t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigytm-tgy-50090w-waterproof-analog-micro-servo-w-metal-gears.html</t>
+  </si>
+  <si>
+    <t>Part of the TorqueNado Motor</t>
+  </si>
+  <si>
+    <t>Teensy Boards (Arduino but better)</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/teensy/teensyLC.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Organizer-Converter-Programmable-Amplifier-Development/dp/B07W6481Y2/ref=sr_1_10?dchild=1&amp;keywords=analog+to+digital+converter+arduino&amp;qid=1592351791&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SunFounder-PCA9685-Channel-Arduino-Raspberry/dp/B014KTSMLA/ref=sr_1_2?dchild=1&amp;keywords=servo+controller&amp;qid=1592351838&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Cytron 10A  Motor Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobby King Waterproof </t>
+  </si>
+  <si>
+    <t>16bit ADC</t>
+  </si>
+  <si>
+    <t>PCA 9685 Servo Controller (up to 16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teensy LC (low cost) has a lot of interrupt pins as well as </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Channel-Bi-directional-Motor-Driver-5-25V/dp/B01M5I2NFM/ref=sr_1_5?dchild=1&amp;keywords=cytron+motor+controller&amp;qid=1592352096&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://www.pitsco.com/TETRIX-MAX-TorqueNADO-Motor-with-Encoder</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Arducam-IMX219-Camera-Module-NVIDIA/dp/B082NSDP5L/ref=sr_1_3?dchild=1&amp;keywords=jetson+nano+camera+autofocus&amp;qid=1592352199&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
@@ -341,7 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -396,7 +453,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,7 +538,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>185286</xdr:rowOff>
+      <xdr:rowOff>180523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,37 +870,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF47D4-88BF-42D1-8E7D-F306B318297F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{0ABB491C-1BCF-4A77-B662-282107128C3E}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{0A28B809-D038-46F4-8EDF-08F7A2FBA2E4}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{7DFF0DFF-0C18-46FB-B871-1F5AFF7E8646}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{7404D7A0-5EDE-4D03-8801-BCCF9360D71D}"/>
+    <hyperlink ref="B4" location="'Battery Monitoring'!A1" display="Here" xr:uid="{10AD17C3-4D70-46D2-A5D1-182A7A28CDCA}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{28364884-E981-48D0-9D6C-8192D64B3944}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{7CBF068F-136A-43CB-AF79-FB684803D695}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{EB4FDF66-1A86-45A4-A47E-A67E884FC370}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{E9B0625A-8FB8-4020-8E70-DD6206059DF2}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{E69898FF-E985-48E3-A001-911A64F510D2}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{A30AC498-F6B3-45F0-B90B-2BA752BDACF0}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{48BD11B1-2FB2-460B-8189-EFD4F27633FC}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{4A724F5D-D450-4A4F-B4F5-CE8D041A4D29}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{F753574B-49E1-4F45-893E-DA7C99C3787C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D1F36D-4D94-4A0E-9DA4-02DA4ECFE1B0}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>14.2</v>
@@ -858,12 +1119,12 @@
         <v>6179.310344827587</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4">
         <v>13.8</v>
@@ -881,7 +1142,7 @@
         <v>7944.8275862068986</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -908,9 +1169,9 @@
         <v>12.6005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -928,7 +1189,7 @@
         <v>2206.8965517241377</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -945,34 +1206,34 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>2.048</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <f>2^B8</f>
         <v>65536</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <f>B7/B9</f>
@@ -983,48 +1244,48 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1034,33 +1295,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F429EF87-7522-4814-9EDC-46F679FC0812}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="62" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="207.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="118.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="207.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="74.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1072,17 +1333,10 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1108,9 +1362,9 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B3">
         <f>10/1000</f>
@@ -1123,19 +1377,19 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">B3*D3</f>
+        <f>B3*D3</f>
         <v>0.12</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G12" si="1">B3*F3</f>
+        <f>B3*F3</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -1148,19 +1402,19 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>B4*D4</f>
         <v>0.12</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>B4*F4</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -1173,23 +1427,20 @@
         <v>2.9</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>B5*D5</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f>B5*F5</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
       </c>
       <c r="B6">
         <f>90/1000</f>
@@ -1202,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>B6*D6</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="F6">
@@ -1211,13 +1462,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0.01</v>
@@ -1239,16 +1487,10 @@
         <f>B7*F7</f>
         <v>0.01</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -1260,26 +1502,20 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>B8*D8</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>B8*F8</f>
         <v>0.6</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1291,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>B9*D9</f>
         <v>0</v>
       </c>
       <c r="F9">
@@ -1301,12 +1537,9 @@
         <f>B9*F9</f>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
@@ -1316,19 +1549,19 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>B10*D10</f>
         <v>0</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>B10*F10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B11">
@@ -1341,20 +1574,20 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>B11*D11</f>
         <v>20</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f>B11*F11</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1366,314 +1599,309 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>B12*D12</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>B12*F12</f>
         <v>0.2</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <f>3.6/1000000</f>
-        <v>3.6000000000000003E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="F16">
-        <f>20/G16</f>
+      <c r="F19">
+        <f>20/G19</f>
         <v>3.3002755730103464</v>
       </c>
-      <c r="G16">
+      <c r="G19">
         <f>SUM(G2:G12)</f>
         <v>6.0601000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <f>G17-G16</f>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <f>G20-G19</f>
         <v>23.939900000000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" xr:uid="{0ABB491C-1BCF-4A77-B662-282107128C3E}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{EFF2D9E4-57CD-4566-B223-436AE5308D7D}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{0A28B809-D038-46F4-8EDF-08F7A2FBA2E4}"/>
-    <hyperlink ref="J7" r:id="rId4" xr:uid="{7DFF0DFF-0C18-46FB-B871-1F5AFF7E8646}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245EC6FB-CA50-41B1-9356-3B860B133452}">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1681,140 +1909,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6E97F-5E4B-447C-9532-0011B3D57928}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ME/power_system.xlsx
+++ b/ME/power_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C86550-BC36-4E76-A85A-1FA342462E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B5C719-C881-4A5B-8C47-006A8ED9453A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="4" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>Battery Nominal Voltage</t>
   </si>
@@ -364,6 +364,33 @@
   </si>
   <si>
     <t>Links</t>
+  </si>
+  <si>
+    <t>Data Sheets</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>https://invensense.tdk.com/wp-content/uploads/2015/02/PS-MPU-9250A-01-v1.1.pdf</t>
+  </si>
+  <si>
+    <t>https://asset.pitsco.com/sharedimages/resources/torquenado_dcmotorspecs.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/ads1115.pdf?ts=1592353076300</t>
+  </si>
+  <si>
+    <t>https://www.pjrc.com/teensy/teensyLC.html#specs</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/datasheets/PCA9685.pdf</t>
+  </si>
+  <si>
+    <t>https://developer.download.nvidia.com/assets/embedded/secure/jetson/Nano/docs/NVIDIA_Jetson_Nano_Developer_Kit_User_Guide.pdf?QIEdPbWeMYuw_ubyYmkGzYTDdKwMqu3MBvV4-zHp8Lvh5hyx1Q_FPKjKHQWGTHFAH-yo4hmDuApZ2HhTyRo4_2jXiXNCH5yaP-ee0j0E8rTYpZKhuWCH_FTQV0SjGcdI0nSDa2W8aiUO8Pe1c7C8Q6ckoVdzBidGvqzPl3BeZWeD6_EUGm22Z4GqDnELPjTECzDqhgc_</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/datasheet/2/233/LI-IMX219-MIPI-FF-NANO_SPEC-1596177.pdf</t>
   </si>
 </sst>
 </file>
@@ -373,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +425,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -440,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -452,12 +486,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -873,26 +906,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF47D4-88BF-42D1-8E7D-F306B318297F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="208.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
@@ -904,6 +943,9 @@
       <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
@@ -915,6 +957,9 @@
       <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
@@ -926,6 +971,9 @@
       <c r="C4" t="s">
         <v>106</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
@@ -937,6 +985,9 @@
       <c r="C5" t="s">
         <v>106</v>
       </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
@@ -948,6 +999,9 @@
       <c r="C6" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
@@ -973,6 +1027,9 @@
       <c r="C8" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
@@ -984,6 +1041,9 @@
       <c r="C9" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
@@ -995,6 +1055,9 @@
       <c r="C10" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
@@ -1006,6 +1069,9 @@
       <c r="C11" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
@@ -1017,6 +1083,9 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="10" t="s">
@@ -1028,6 +1097,9 @@
       <c r="C13" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
@@ -1039,6 +1111,9 @@
       <c r="C14" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
@@ -1047,11 +1122,11 @@
       <c r="C15" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{0ABB491C-1BCF-4A77-B662-282107128C3E}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{0A28B809-D038-46F4-8EDF-08F7A2FBA2E4}"/>
@@ -1067,8 +1142,19 @@
     <hyperlink ref="C3" r:id="rId11" xr:uid="{48BD11B1-2FB2-460B-8189-EFD4F27633FC}"/>
     <hyperlink ref="C10" r:id="rId12" xr:uid="{4A724F5D-D450-4A4F-B4F5-CE8D041A4D29}"/>
     <hyperlink ref="C9" r:id="rId13" xr:uid="{F753574B-49E1-4F45-893E-DA7C99C3787C}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{F9A1CBFA-9B2A-4205-B860-49A3F286A186}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{A2D3D50B-DFF3-4D3D-B77E-2B1937359236}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{90EC5E64-7BA5-46AF-9E4D-FC14196C2364}"/>
+    <hyperlink ref="D4" location="'Battery Monitoring'!A1" display="Here" xr:uid="{B2D5693C-1BA7-48A7-928E-9EBB6E60090F}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{43DB440B-0F0E-46BC-9747-A4466CA28CCD}"/>
+    <hyperlink ref="D15" r:id="rId18" location="specs" display="https://www.pjrc.com/teensy/teensyLC.html - specs" xr:uid="{C73B3C95-E7E6-4D24-9DB2-5F6E1EF017AB}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{6A94982D-816D-4C1E-8AC1-9CDE55D93BBF}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{69DA9054-EF32-40B8-BE33-10166D902D8D}"/>
+    <hyperlink ref="D11" r:id="rId21" display="https://developer.download.nvidia.com/assets/embedded/secure/jetson/Nano/docs/NVIDIA_Jetson_Nano_Developer_Kit_User_Guide.pdf?QIEdPbWeMYuw_ubyYmkGzYTDdKwMqu3MBvV4-zHp8Lvh5hyx1Q_FPKjKHQWGTHFAH-yo4hmDuApZ2HhTyRo4_2jXiXNCH5yaP-ee0j0E8rTYpZKhuWCH_FTQV0SjGcdI0nSDa2W8aiUO8Pe1c7C8Q6ckoVdzBidGvqzPl3BeZWeD6_EUGm22Z4GqDnELPjTECzDqhgc_" xr:uid="{6F81D5EB-2FED-4905-B612-C73F6BE9AA57}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{CA418673-4D45-41B3-BA0B-609FE605F4FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -1351,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <f>B2*D2</f>
+        <f t="shared" ref="E2:E12" si="0">B2*D2</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F2">
@@ -1377,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <f>B3*D3</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F3">
@@ -1402,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <f>B4*D4</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F4">
@@ -1427,7 +1513,7 @@
         <v>2.9</v>
       </c>
       <c r="E5">
-        <f>B5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="F5">
@@ -1453,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <f>B6*D6</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="F6">
@@ -1477,14 +1563,14 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f>B7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <f>B7*F7</f>
+        <f t="shared" ref="G7:G12" si="1">B7*F7</f>
         <v>0.01</v>
       </c>
     </row>
@@ -1502,14 +1588,14 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <f>B8*D8</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <f>B8*F8</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
@@ -1527,14 +1613,14 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>B9*D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <f>B9*F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1549,14 +1635,14 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>B10*D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <f>B10*F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1574,14 +1660,14 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f>B11*D11</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <f>B11*F11</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1599,14 +1685,14 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>B12*D12</f>
+        <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <f>B12*F12</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1913,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D6E97F-5E4B-447C-9532-0011B3D57928}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
